--- a/GANTT/Team21Project1 GANTT.xlsx
+++ b/GANTT/Team21Project1 GANTT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Master\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\团队项目\PublicFiles\GANTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C79B81B-BD74-4B4A-8D11-6E5B6CA883D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0BF479-AB1F-4904-9659-E15E20FF1CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,11 +200,11 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>Weeks</t>
+    <t>Trading center</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>Trading center</t>
+    <t>WEEKS</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -568,6 +568,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -615,12 +621,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1034,7 +1034,7 @@
   <dimension ref="B1:BO14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1057,13 +1057,13 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1071,70 +1071,70 @@
         <v>1</v>
       </c>
       <c r="J2" s="14"/>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="30"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="32"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="34"/>
       <c r="Z2" s="17"/>
-      <c r="AA2" s="33" t="s">
+      <c r="AA2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="35"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="37"/>
       <c r="AH2" s="18"/>
-      <c r="AI2" s="20" t="s">
+      <c r="AI2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:67" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="29" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
@@ -1157,12 +1157,12 @@
       <c r="AA3" s="9"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1345,40 +1345,40 @@
       </c>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="D5" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
       <c r="F6" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -1392,161 +1392,161 @@
       <c r="Y6"/>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="6">
         <v>5</v>
       </c>
       <c r="D7" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E7" s="6">
         <v>5</v>
       </c>
       <c r="F7" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="6">
         <v>9</v>
       </c>
       <c r="D8" s="6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E8" s="6">
         <v>9</v>
       </c>
       <c r="F8" s="6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="6">
         <v>8</v>
       </c>
       <c r="D9" s="6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E9" s="6">
         <v>8</v>
       </c>
       <c r="F9" s="6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="6">
         <v>9</v>
       </c>
       <c r="D10" s="6">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E10" s="6">
         <v>9</v>
       </c>
       <c r="F10" s="6">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
       </c>
-      <c r="L10" s="36"/>
+      <c r="L10" s="20"/>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="6">
         <v>11</v>
       </c>
       <c r="D11" s="6">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E11" s="6">
         <v>11</v>
       </c>
       <c r="F11" s="6">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="6">
         <v>10</v>
       </c>
       <c r="D12" s="6">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E12" s="6">
         <v>10</v>
       </c>
       <c r="F12" s="6">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="37" t="s">
-        <v>24</v>
+      <c r="B13" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C13" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13" s="6">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E13" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F13" s="6">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="6">
         <v>16</v>
       </c>
       <c r="D14" s="6">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E14" s="6">
         <v>16</v>
       </c>
       <c r="F14" s="6">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
